--- a/analisi/data/raw/LattazioneAziende.xlsx
+++ b/analisi/data/raw/LattazioneAziende.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\benessere-capre-prc2018005\analisi\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bg-dc2012\Doc_Comuni\PRC2018005\Elaborazione Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BEAC20-D62C-491E-A5A1-EA1259832DDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF6B10D-78C2-4D1D-83F9-8CBA61248E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8928" xr2:uid="{DBDA4256-251B-4C54-8A4C-5050A24C7E0C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" xr2:uid="{DBDA4256-251B-4C54-8A4C-5050A24C7E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>009CO030</t>
   </si>
@@ -102,6 +102,15 @@
     <t>027PR347</t>
   </si>
   <si>
+    <t>Allevix</t>
+  </si>
+  <si>
+    <t>LATTAZIONE</t>
+  </si>
+  <si>
+    <t>DESTAGIONALIZZAZIONE</t>
+  </si>
+  <si>
     <t>CORTA</t>
   </si>
   <si>
@@ -129,20 +138,29 @@
     <t>094AT148</t>
   </si>
   <si>
-    <t>azienda</t>
-  </si>
-  <si>
-    <t>Lattazione</t>
-  </si>
-  <si>
-    <t>Destagionalizzazione</t>
+    <t>196TN003</t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>104TN094</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +174,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -268,6 +299,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -583,361 +616,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6A6E25-2F0B-4EB8-80C4-F359827D0F0E}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/analisi/data/raw/LattazioneAziende.xlsx
+++ b/analisi/data/raw/LattazioneAziende.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bg-dc2012\Doc_Comuni\PRC2018005\Elaborazione Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vito.tranquillo\Desktop\Git Projects\benessere-capre-prc2018005\analisi\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF6B10D-78C2-4D1D-83F9-8CBA61248E70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A69215-51C5-41D4-A320-88B1C86E8261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8925" xr2:uid="{DBDA4256-251B-4C54-8A4C-5050A24C7E0C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{DBDA4256-251B-4C54-8A4C-5050A24C7E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>027PR347</t>
   </si>
   <si>
-    <t>Allevix</t>
-  </si>
-  <si>
     <t>LATTAZIONE</t>
   </si>
   <si>
@@ -155,12 +152,15 @@
       <t>104TN094</t>
     </r>
   </si>
+  <si>
+    <t>azienda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +174,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
@@ -300,7 +293,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -618,378 +611,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6A6E25-2F0B-4EB8-80C4-F359827D0F0E}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="B28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="B31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B33" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
